--- a/data/trans_orig/P21D_6_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D_6_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1384649-7708-4A97-A30C-34EE9006F00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B4CDD0C-87AB-4BAC-AE7C-88749E11B708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1B007010-AD3B-443F-9770-DAFCEA6B078E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{48E95A77-538C-408B-ABED-4F3500BBA2C4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
   <si>
     <t>Población que, necesitando atención fisioterapéutica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,27%</t>
+    <t>1,89%</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>99,55%</t>
   </si>
   <si>
-    <t>97,73%</t>
+    <t>98,11%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -113,19 +113,19 @@
     <t>97,81%</t>
   </si>
   <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
   </si>
   <si>
     <t>98,49%</t>
   </si>
   <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,13 +140,16 @@
     <t>0,22%</t>
   </si>
   <si>
+    <t>1,45%</t>
+  </si>
+  <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
   </si>
   <si>
     <t>0,98%</t>
@@ -155,28 +158,31 @@
     <t>0,62%</t>
   </si>
   <si>
-    <t>1,52%</t>
+    <t>1,49%</t>
   </si>
   <si>
     <t>99,36%</t>
   </si>
   <si>
+    <t>98,55%</t>
+  </si>
+  <si>
     <t>99,78%</t>
   </si>
   <si>
     <t>98,68%</t>
   </si>
   <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
   </si>
   <si>
     <t>99,02%</t>
   </si>
   <si>
-    <t>98,48%</t>
+    <t>98,51%</t>
   </si>
   <si>
     <t>99,38%</t>
@@ -188,97 +194,97 @@
     <t>0,54%</t>
   </si>
   <si>
-    <t>2,2%</t>
+    <t>1,82%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>0,85%</t>
+    <t>0,99%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
   </si>
   <si>
     <t>99,46%</t>
   </si>
   <si>
-    <t>97,8%</t>
+    <t>98,18%</t>
   </si>
   <si>
     <t>99,83%</t>
   </si>
   <si>
-    <t>99,15%</t>
+    <t>99,01%</t>
   </si>
   <si>
     <t>99,65%</t>
   </si>
   <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
   </si>
   <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
   </si>
   <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
   </si>
   <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
   </si>
   <si>
     <t>99,05%</t>
   </si>
   <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -693,7 +699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C750149-C96E-45B2-95FA-FCF80BA3F178}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0503EB8-A494-4059-B8C6-77ECF03300A2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -978,7 +984,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -987,13 +993,13 @@
         <v>12731</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -1002,13 +1008,13 @@
         <v>18765</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1023,13 +1029,13 @@
         <v>940993</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1273</v>
@@ -1038,13 +1044,13 @@
         <v>950605</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>2101</v>
@@ -1053,13 +1059,13 @@
         <v>1891596</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1115,7 +1121,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1127,13 +1133,13 @@
         <v>1746</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1142,13 +1148,13 @@
         <v>560</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -1157,13 +1163,13 @@
         <v>2306</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1178,10 +1184,10 @@
         <v>322584</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -1193,10 +1199,10 @@
         <v>338870</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>23</v>
@@ -1208,13 +1214,13 @@
         <v>661455</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1282,13 +1288,13 @@
         <v>8856</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -1297,13 +1303,13 @@
         <v>21465</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -1312,13 +1318,13 @@
         <v>30320</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1333,13 +1339,13 @@
         <v>1501666</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>2333</v>
@@ -1348,13 +1354,13 @@
         <v>1655327</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>3775</v>
@@ -1363,13 +1369,13 @@
         <v>3156994</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1425,7 +1431,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D_6_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D_6_R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B4CDD0C-87AB-4BAC-AE7C-88749E11B708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99B6CB26-5A02-47B1-AEF4-AF35023E1F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{48E95A77-538C-408B-ABED-4F3500BBA2C4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C099E28E-DF24-44F9-A8BF-F2C965A0443E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -699,7 +699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0503EB8-A494-4059-B8C6-77ECF03300A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C70EDD9-A4A3-4C08-BEEF-8DA86A07B163}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D_6_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D_6_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99B6CB26-5A02-47B1-AEF4-AF35023E1F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38AB147A-AA8E-4447-B855-AC0C0E4BA137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C099E28E-DF24-44F9-A8BF-F2C965A0443E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{350AA526-F440-466F-97C9-AC7810A04A94}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="82">
   <si>
     <t>Población que, necesitando atención fisioterapéutica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,89%</t>
+    <t>2,27%</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>99,55%</t>
   </si>
   <si>
-    <t>98,11%</t>
+    <t>97,73%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -113,19 +113,19 @@
     <t>97,81%</t>
   </si>
   <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
   </si>
   <si>
     <t>98,49%</t>
   </si>
   <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,16 +140,13 @@
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
   </si>
   <si>
     <t>0,98%</t>
@@ -158,31 +155,28 @@
     <t>0,62%</t>
   </si>
   <si>
-    <t>1,49%</t>
+    <t>1,52%</t>
   </si>
   <si>
     <t>99,36%</t>
   </si>
   <si>
-    <t>98,55%</t>
-  </si>
-  <si>
     <t>99,78%</t>
   </si>
   <si>
     <t>98,68%</t>
   </si>
   <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
   <si>
     <t>99,02%</t>
   </si>
   <si>
-    <t>98,51%</t>
+    <t>98,48%</t>
   </si>
   <si>
     <t>99,38%</t>
@@ -194,97 +188,97 @@
     <t>0,54%</t>
   </si>
   <si>
-    <t>1,82%</t>
+    <t>2,2%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>0,99%</t>
+    <t>0,85%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
   </si>
   <si>
     <t>99,46%</t>
   </si>
   <si>
-    <t>98,18%</t>
+    <t>97,8%</t>
   </si>
   <si>
     <t>99,83%</t>
   </si>
   <si>
-    <t>99,01%</t>
+    <t>99,15%</t>
   </si>
   <si>
     <t>99,65%</t>
   </si>
   <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
   </si>
   <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
   </si>
   <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
   </si>
   <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
   </si>
   <si>
     <t>99,05%</t>
   </si>
   <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -699,7 +693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C70EDD9-A4A3-4C08-BEEF-8DA86A07B163}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65BFBD6E-3DB4-47F8-BCD6-A498CB4E341C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -984,7 +978,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -993,13 +987,13 @@
         <v>12731</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -1008,13 +1002,13 @@
         <v>18765</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1029,13 +1023,13 @@
         <v>940993</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1273</v>
@@ -1044,13 +1038,13 @@
         <v>950605</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>2101</v>
@@ -1059,13 +1053,13 @@
         <v>1891596</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1121,7 +1115,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1133,13 +1127,13 @@
         <v>1746</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1148,13 +1142,13 @@
         <v>560</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -1163,13 +1157,13 @@
         <v>2306</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1184,10 +1178,10 @@
         <v>322584</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -1199,10 +1193,10 @@
         <v>338870</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>23</v>
@@ -1214,13 +1208,13 @@
         <v>661455</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1288,13 +1282,13 @@
         <v>8856</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -1303,13 +1297,13 @@
         <v>21465</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -1318,13 +1312,13 @@
         <v>30320</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1339,13 +1333,13 @@
         <v>1501666</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>2333</v>
@@ -1354,13 +1348,13 @@
         <v>1655327</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>3775</v>
@@ -1369,13 +1363,13 @@
         <v>3156994</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1431,7 +1425,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D_6_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D_6_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38AB147A-AA8E-4447-B855-AC0C0E4BA137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBCDCE1D-2BCB-4367-A29B-10A59CEC6BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{350AA526-F440-466F-97C9-AC7810A04A94}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A1618A53-98C6-4B92-B63C-D1C1ACFB6ABA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
   <si>
     <t>Población que, necesitando atención fisioterapéutica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
@@ -71,58 +71,58 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>0,45%</t>
+    <t>0,44%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>2,56%</t>
+    <t>2,53%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
   </si>
   <si>
     <t>99,2%</t>
@@ -134,52 +134,58 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -188,10 +194,10 @@
     <t>0,54%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
   </si>
   <si>
     <t>0,85%</t>
@@ -203,16 +209,16 @@
     <t>0,08%</t>
   </si>
   <si>
-    <t>1,06%</t>
+    <t>1,07%</t>
   </si>
   <si>
     <t>99,46%</t>
   </si>
   <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
   </si>
   <si>
     <t>99,15%</t>
@@ -221,64 +227,64 @@
     <t>99,65%</t>
   </si>
   <si>
-    <t>98,94%</t>
+    <t>98,93%</t>
   </si>
   <si>
     <t>99,92%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -693,7 +699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65BFBD6E-3DB4-47F8-BCD6-A498CB4E341C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E279D47-3F82-442E-8566-73A5B9C1F5D8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -814,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>1077</v>
+        <v>1004</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -829,7 +835,7 @@
         <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>8173</v>
+        <v>7477</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -844,7 +850,7 @@
         <v>14</v>
       </c>
       <c r="N4" s="7">
-        <v>9249</v>
+        <v>8481</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -865,7 +871,7 @@
         <v>298</v>
       </c>
       <c r="D5" s="7">
-        <v>238089</v>
+        <v>229093</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -880,7 +886,7 @@
         <v>618</v>
       </c>
       <c r="I5" s="7">
-        <v>365853</v>
+        <v>329150</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -895,7 +901,7 @@
         <v>916</v>
       </c>
       <c r="N5" s="7">
-        <v>603942</v>
+        <v>558243</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -916,7 +922,7 @@
         <v>299</v>
       </c>
       <c r="D6" s="7">
-        <v>239166</v>
+        <v>230097</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -931,7 +937,7 @@
         <v>631</v>
       </c>
       <c r="I6" s="7">
-        <v>374026</v>
+        <v>336627</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -946,7 +952,7 @@
         <v>930</v>
       </c>
       <c r="N6" s="7">
-        <v>613191</v>
+        <v>566724</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -969,7 +975,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>6033</v>
+        <v>5909</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -978,37 +984,37 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
       </c>
       <c r="I7" s="7">
-        <v>12731</v>
+        <v>11929</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
       </c>
       <c r="N7" s="7">
-        <v>18765</v>
+        <v>17838</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1020,46 +1026,46 @@
         <v>828</v>
       </c>
       <c r="D8" s="7">
-        <v>940993</v>
+        <v>1110194</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1273</v>
       </c>
       <c r="I8" s="7">
-        <v>950605</v>
+        <v>925384</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>2101</v>
       </c>
       <c r="N8" s="7">
-        <v>1891596</v>
+        <v>2035578</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1071,7 +1077,7 @@
         <v>833</v>
       </c>
       <c r="D9" s="7">
-        <v>947026</v>
+        <v>1116103</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1086,7 +1092,7 @@
         <v>1291</v>
       </c>
       <c r="I9" s="7">
-        <v>963336</v>
+        <v>937313</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1101,7 +1107,7 @@
         <v>2124</v>
       </c>
       <c r="N9" s="7">
-        <v>1910361</v>
+        <v>2053416</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1115,7 +1121,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1124,46 +1130,46 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>1746</v>
+        <v>1684</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>560</v>
+        <v>515</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>2306</v>
+        <v>2199</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1175,13 +1181,13 @@
         <v>316</v>
       </c>
       <c r="D11" s="7">
-        <v>322584</v>
+        <v>308499</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -1190,13 +1196,13 @@
         <v>442</v>
       </c>
       <c r="I11" s="7">
-        <v>338870</v>
+        <v>311772</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>23</v>
@@ -1205,16 +1211,16 @@
         <v>758</v>
       </c>
       <c r="N11" s="7">
-        <v>661455</v>
+        <v>620272</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1226,7 +1232,7 @@
         <v>318</v>
       </c>
       <c r="D12" s="7">
-        <v>324330</v>
+        <v>310183</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1241,7 +1247,7 @@
         <v>443</v>
       </c>
       <c r="I12" s="7">
-        <v>339430</v>
+        <v>312287</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1256,7 +1262,7 @@
         <v>761</v>
       </c>
       <c r="N12" s="7">
-        <v>663761</v>
+        <v>622471</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1279,46 +1285,46 @@
         <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>8856</v>
+        <v>8597</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
       </c>
       <c r="I13" s="7">
-        <v>21465</v>
+        <v>19921</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
       </c>
       <c r="N13" s="7">
-        <v>30320</v>
+        <v>28518</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1330,46 +1336,46 @@
         <v>1442</v>
       </c>
       <c r="D14" s="7">
-        <v>1501666</v>
+        <v>1647787</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>2333</v>
       </c>
       <c r="I14" s="7">
-        <v>1655327</v>
+        <v>1566306</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>3775</v>
       </c>
       <c r="N14" s="7">
-        <v>3156994</v>
+        <v>3214093</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1381,7 +1387,7 @@
         <v>1450</v>
       </c>
       <c r="D15" s="7">
-        <v>1510522</v>
+        <v>1656384</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1396,7 +1402,7 @@
         <v>2365</v>
       </c>
       <c r="I15" s="7">
-        <v>1676792</v>
+        <v>1586227</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1411,7 +1417,7 @@
         <v>3815</v>
       </c>
       <c r="N15" s="7">
-        <v>3187314</v>
+        <v>3242611</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1425,7 +1431,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
